--- a/Race Dashboard data/changeover.xlsx
+++ b/Race Dashboard data/changeover.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sanofi.sharepoint.com/sites/SanofixMcLarensharing/Shared Documents/General/Race Dashboard data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64B95F19-1A7F-496F-B20D-A0487A2D8FC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFD8CBFA-8612-4A76-B09E-BCEF6E90647F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1230" windowWidth="17280" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="13965" windowHeight="7590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="47">
   <si>
     <t>Week</t>
   </si>
@@ -753,7 +753,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="1">
-        <v>9.9215686274509815E-2</v>
+        <v>9.9215686274509801E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -797,7 +797,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="1">
-        <v>0.68696542864087207</v>
+        <v>0.68696542864087218</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -841,7 +841,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="1">
-        <v>6.6609735269000853E-2</v>
+        <v>6.6609735269000866E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -863,7 +863,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="1">
-        <v>0.31461715601611978</v>
+        <v>0.31461715601611961</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -918,7 +918,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="1">
-        <v>4.6187618660157331E-2</v>
+        <v>4.6187618660157317E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -929,7 +929,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="1">
-        <v>0.242733134920635</v>
+        <v>0.24273313492063489</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1039,7 +1039,7 @@
         <v>12</v>
       </c>
       <c r="C42" s="1">
-        <v>2.719080687830689E-2</v>
+        <v>2.719080687830688E-2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1050,7 +1050,7 @@
         <v>13</v>
       </c>
       <c r="C43" s="1">
-        <v>3.1585648148148161E-2</v>
+        <v>3.1585648148148168E-2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
         <v>15</v>
       </c>
       <c r="C45" s="1">
-        <v>0.29947502548419969</v>
+        <v>0.29947502548419991</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1083,7 +1083,7 @@
         <v>4</v>
       </c>
       <c r="C46" s="1">
-        <v>9.8149729575861128E-2</v>
+        <v>9.8149729575861114E-2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1138,7 +1138,7 @@
         <v>10</v>
       </c>
       <c r="C51" s="1">
-        <v>0.27640297498309663</v>
+        <v>0.27640297498309668</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1182,7 +1182,7 @@
         <v>14</v>
       </c>
       <c r="C55" s="1">
-        <v>0.14174883436520669</v>
+        <v>0.1417488343652068</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1204,7 +1204,7 @@
         <v>4</v>
       </c>
       <c r="C57" s="1">
-        <v>6.4474807856532854E-2</v>
+        <v>6.4474807856532868E-2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1248,7 +1248,7 @@
         <v>9</v>
       </c>
       <c r="C61" s="1">
-        <v>0.2280556945139236</v>
+        <v>0.22805569451392371</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1270,7 +1270,7 @@
         <v>11</v>
       </c>
       <c r="C63" s="1">
-        <v>1.380621693121693E-2</v>
+        <v>1.380621693121694E-2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1380,7 +1380,7 @@
         <v>10</v>
       </c>
       <c r="C73" s="1">
-        <v>0.34907159833630408</v>
+        <v>0.34907159833630419</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1391,7 +1391,7 @@
         <v>11</v>
       </c>
       <c r="C74" s="1">
-        <v>9.8213653423978475E-2</v>
+        <v>9.8213653423978503E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1413,7 +1413,7 @@
         <v>13</v>
       </c>
       <c r="C76" s="1">
-        <v>0.67147393780113851</v>
+        <v>0.67147393780113884</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1435,7 +1435,7 @@
         <v>15</v>
       </c>
       <c r="C78" s="1">
-        <v>0.25267267267267263</v>
+        <v>0.25267267267267268</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1512,7 +1512,7 @@
         <v>11</v>
       </c>
       <c r="C85" s="1">
-        <v>0.4941673734803505</v>
+        <v>0.49416737348035039</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
         <v>12</v>
       </c>
       <c r="C108" s="1">
-        <v>3.8017526455026457E-2</v>
+        <v>3.8017526455026471E-2</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -1776,7 +1776,7 @@
         <v>13</v>
       </c>
       <c r="C109" s="1">
-        <v>3.8105158730158753E-2</v>
+        <v>3.8105158730158739E-2</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -1831,7 +1831,7 @@
         <v>7</v>
       </c>
       <c r="C114" s="1">
-        <v>8.1773301737756696E-2</v>
+        <v>8.1773301737756737E-2</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -1842,7 +1842,7 @@
         <v>8</v>
       </c>
       <c r="C115" s="1">
-        <v>8.0279648335203888E-2</v>
+        <v>8.0279648335203874E-2</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -1853,7 +1853,7 @@
         <v>9</v>
       </c>
       <c r="C116" s="1">
-        <v>0.14990034877927261</v>
+        <v>0.1499003487792725</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -1897,7 +1897,7 @@
         <v>13</v>
       </c>
       <c r="C120" s="1">
-        <v>0.4393684895833333</v>
+        <v>0.43936848958333319</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -1930,7 +1930,7 @@
         <v>4</v>
       </c>
       <c r="C123" s="1">
-        <v>5.4127526330771399E-2</v>
+        <v>5.4127526330771412E-2</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -1963,7 +1963,7 @@
         <v>8</v>
       </c>
       <c r="C126" s="1">
-        <v>0.1962354188759278</v>
+        <v>0.19623541887592791</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -1985,7 +1985,7 @@
         <v>10</v>
       </c>
       <c r="C128" s="1">
-        <v>0.24661262686173721</v>
+        <v>0.2466126268617371</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2018,7 +2018,7 @@
         <v>13</v>
       </c>
       <c r="C131" s="1">
-        <v>1.4100529100529099E-2</v>
+        <v>1.410052910052911E-2</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2073,7 +2073,7 @@
         <v>7</v>
       </c>
       <c r="C136" s="1">
-        <v>0.28640955896638831</v>
+        <v>0.2864095589663882</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2084,7 +2084,7 @@
         <v>8</v>
       </c>
       <c r="C137" s="1">
-        <v>0.31244622189904853</v>
+        <v>0.31244622189904858</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2139,7 +2139,7 @@
         <v>13</v>
       </c>
       <c r="C142" s="1">
-        <v>3.3840652029274783E-2</v>
+        <v>3.384065202927479E-2</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2183,7 +2183,7 @@
         <v>30</v>
       </c>
       <c r="C146" s="1">
-        <v>0.18495756172839509</v>
+        <v>0.184957561728395</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2205,7 +2205,7 @@
         <v>6</v>
       </c>
       <c r="C148" s="1">
-        <v>8.1870595771941071E-2</v>
+        <v>8.1870595771941057E-2</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2282,7 +2282,7 @@
         <v>13</v>
       </c>
       <c r="C155" s="1">
-        <v>3.516369047619048E-2</v>
+        <v>3.5163690476190487E-2</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2293,7 +2293,7 @@
         <v>14</v>
       </c>
       <c r="C156" s="1">
-        <v>0.17880587921711971</v>
+        <v>0.1788058792171198</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2403,7 +2403,7 @@
         <v>11</v>
       </c>
       <c r="C166" s="1">
-        <v>9.5404285971546932E-2</v>
+        <v>9.5404285971546918E-2</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -2436,7 +2436,7 @@
         <v>14</v>
       </c>
       <c r="C169" s="1">
-        <v>0.13230246032795251</v>
+        <v>0.13230246032795259</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -2458,7 +2458,7 @@
         <v>29</v>
       </c>
       <c r="C171" s="1">
-        <v>8.7039035145704727E-2</v>
+        <v>8.7039035145704755E-2</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -2502,7 +2502,7 @@
         <v>7</v>
       </c>
       <c r="C175" s="1">
-        <v>0.3628697571743929</v>
+        <v>0.36286975717439279</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -2535,7 +2535,7 @@
         <v>10</v>
       </c>
       <c r="C178" s="1">
-        <v>0.44798173515981732</v>
+        <v>0.44798173515981721</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2546,7 +2546,7 @@
         <v>11</v>
       </c>
       <c r="C179" s="1">
-        <v>0.3904167744159987</v>
+        <v>0.39041677441599859</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -2612,7 +2612,7 @@
         <v>30</v>
       </c>
       <c r="C185" s="1">
-        <v>8.517361111111113E-2</v>
+        <v>8.5173611111111103E-2</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -2711,7 +2711,7 @@
         <v>13</v>
       </c>
       <c r="C194" s="1">
-        <v>3.979828042328043E-2</v>
+        <v>3.9798280423280437E-2</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2722,7 +2722,7 @@
         <v>14</v>
       </c>
       <c r="C195" s="1">
-        <v>7.3062531709791989E-2</v>
+        <v>7.3062531709791975E-2</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -2744,7 +2744,7 @@
         <v>29</v>
       </c>
       <c r="C197" s="1">
-        <v>6.3260967887833558E-2</v>
+        <v>6.3260967887833572E-2</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -2799,7 +2799,7 @@
         <v>8</v>
       </c>
       <c r="C202" s="1">
-        <v>0.1113430268918074</v>
+        <v>0.11134302689180731</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -2854,7 +2854,7 @@
         <v>12</v>
       </c>
       <c r="C207" s="1">
-        <v>0.19343750000000001</v>
+        <v>0.1934375000000001</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -2986,7 +2986,7 @@
         <v>10</v>
       </c>
       <c r="C219" s="1">
-        <v>0.34136150234741791</v>
+        <v>0.3413615023474178</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -3008,7 +3008,7 @@
         <v>11</v>
       </c>
       <c r="C221" s="1">
-        <v>3.7331349206349208E-2</v>
+        <v>3.7331349206349222E-2</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -3019,7 +3019,7 @@
         <v>12</v>
       </c>
       <c r="C222" s="1">
-        <v>4.593479086795843E-2</v>
+        <v>4.5934790867958417E-2</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -3030,7 +3030,7 @@
         <v>13</v>
       </c>
       <c r="C223" s="1">
-        <v>6.0702711640211661E-2</v>
+        <v>6.0702711640211647E-2</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -3041,7 +3041,7 @@
         <v>36</v>
       </c>
       <c r="C224" s="1">
-        <v>4.231665241367108E-2</v>
+        <v>4.2316652413671087E-2</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -3052,7 +3052,7 @@
         <v>14</v>
       </c>
       <c r="C225" s="1">
-        <v>5.1255718420315552E-2</v>
+        <v>5.1255718420315559E-2</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -3074,7 +3074,7 @@
         <v>29</v>
       </c>
       <c r="C227" s="1">
-        <v>6.0572663425175588E-2</v>
+        <v>6.0572663425175581E-2</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -3107,7 +3107,7 @@
         <v>6</v>
       </c>
       <c r="C230" s="1">
-        <v>9.4017094017094044E-2</v>
+        <v>9.401709401709403E-2</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -3129,7 +3129,7 @@
         <v>8</v>
       </c>
       <c r="C232" s="1">
-        <v>0.15826300984528829</v>
+        <v>0.1582630098452884</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -3195,7 +3195,7 @@
         <v>13</v>
       </c>
       <c r="C238" s="1">
-        <v>0.58002699055330642</v>
+        <v>0.5800269905533062</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -3206,7 +3206,7 @@
         <v>36</v>
       </c>
       <c r="C239" s="1">
-        <v>2.561607507139943E-2</v>
+        <v>2.561607507139944E-2</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -3250,7 +3250,7 @@
         <v>30</v>
       </c>
       <c r="C243" s="1">
-        <v>4.2577160493827163E-2</v>
+        <v>4.2577160493827169E-2</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -3338,7 +3338,7 @@
         <v>11</v>
       </c>
       <c r="C251" s="1">
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -3349,7 +3349,7 @@
         <v>12</v>
       </c>
       <c r="C252" s="1">
-        <v>7.8635507618558462E-2</v>
+        <v>7.8635507618558489E-2</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -3360,7 +3360,7 @@
         <v>13</v>
       </c>
       <c r="C253" s="1">
-        <v>0.16132853963362451</v>
+        <v>0.1613285396336244</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="C259" s="1">
-        <v>6.3281249999999997E-2</v>
+        <v>6.3281250000000011E-2</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -3459,7 +3459,7 @@
         <v>8</v>
       </c>
       <c r="C262" s="1">
-        <v>0.17531842818428189</v>
+        <v>0.17531842818428181</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -3470,7 +3470,7 @@
         <v>9</v>
       </c>
       <c r="C263" s="1">
-        <v>0.15972893564591031</v>
+        <v>0.1597289356459104</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -3503,7 +3503,7 @@
         <v>11</v>
       </c>
       <c r="C266" s="1">
-        <v>0.626590330788804</v>
+        <v>0.62659033078880411</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -3536,7 +3536,7 @@
         <v>36</v>
       </c>
       <c r="C269" s="1">
-        <v>8.0402134789623977E-2</v>
+        <v>8.040213478962395E-2</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -3547,7 +3547,7 @@
         <v>14</v>
       </c>
       <c r="C270" s="1">
-        <v>4.2122029149595563E-2</v>
+        <v>4.2122029149595577E-2</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -3580,7 +3580,7 @@
         <v>30</v>
       </c>
       <c r="C273" s="1">
-        <v>8.1319444444444472E-2</v>
+        <v>8.1319444444444458E-2</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -3602,7 +3602,7 @@
         <v>6</v>
       </c>
       <c r="C275" s="1">
-        <v>7.6282051282051275E-2</v>
+        <v>7.6282051282051289E-2</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -3756,7 +3756,7 @@
         <v>4</v>
       </c>
       <c r="C289" s="1">
-        <v>3.2088006902502152E-2</v>
+        <v>3.2088006902502159E-2</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -3789,7 +3789,7 @@
         <v>8</v>
       </c>
       <c r="C292" s="1">
-        <v>0.22995210727969351</v>
+        <v>0.2299521072796934</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -3800,7 +3800,7 @@
         <v>9</v>
       </c>
       <c r="C293" s="1">
-        <v>0.23681949784042911</v>
+        <v>0.23681949784042899</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -3811,7 +3811,7 @@
         <v>10</v>
       </c>
       <c r="C294" s="1">
-        <v>0.26266409817351599</v>
+        <v>0.26266409817351588</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -3833,7 +3833,7 @@
         <v>11</v>
       </c>
       <c r="C296" s="1">
-        <v>4.0597610969748378E-2</v>
+        <v>4.0597610969748392E-2</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -3932,7 +3932,7 @@
         <v>6</v>
       </c>
       <c r="C305" s="1">
-        <v>9.9222222222222239E-2</v>
+        <v>9.9222222222222212E-2</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -3965,7 +3965,7 @@
         <v>9</v>
       </c>
       <c r="C308" s="1">
-        <v>0.1592595412099066</v>
+        <v>0.15925954120990671</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -3998,7 +3998,7 @@
         <v>11</v>
       </c>
       <c r="C311" s="1">
-        <v>3.7814153439153439E-2</v>
+        <v>3.7814153439153453E-2</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -4009,7 +4009,7 @@
         <v>12</v>
       </c>
       <c r="C312" s="1">
-        <v>4.0727393015077128E-2</v>
+        <v>4.0727393015077148E-2</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -4020,7 +4020,7 @@
         <v>13</v>
       </c>
       <c r="C313" s="1">
-        <v>0.36475220009263543</v>
+        <v>0.36475220009263548</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -4075,7 +4075,7 @@
         <v>30</v>
       </c>
       <c r="C318" s="1">
-        <v>4.9820601851851852E-2</v>
+        <v>4.9820601851851838E-2</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -4119,7 +4119,7 @@
         <v>8</v>
       </c>
       <c r="C322" s="1">
-        <v>0.17363511659807951</v>
+        <v>0.17363511659807959</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -4163,7 +4163,7 @@
         <v>11</v>
       </c>
       <c r="C326" s="1">
-        <v>4.1189369021965148E-2</v>
+        <v>4.1189369021965141E-2</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -4174,7 +4174,7 @@
         <v>12</v>
       </c>
       <c r="C327" s="1">
-        <v>0.44030934343434341</v>
+        <v>0.44030934343434353</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -4218,7 +4218,7 @@
         <v>15</v>
       </c>
       <c r="C331" s="1">
-        <v>3.8516982593678729E-2</v>
+        <v>3.8516982593678743E-2</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -4240,7 +4240,7 @@
         <v>30</v>
       </c>
       <c r="C333" s="1">
-        <v>0.14567832941501871</v>
+        <v>7.5840132761720358E-2</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -4251,7 +4251,7 @@
         <v>4</v>
       </c>
       <c r="C334" s="1">
-        <v>2.0467684873587019E-2</v>
+        <v>2.2772657450076811E-2</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -4273,7 +4273,7 @@
         <v>7</v>
       </c>
       <c r="C336" s="1">
-        <v>0.27825146198830408</v>
+        <v>0.27825146198830403</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -4284,7 +4284,7 @@
         <v>8</v>
       </c>
       <c r="C337" s="1">
-        <v>0.23280530973451319</v>
+        <v>0.22495232987724939</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -4295,7 +4295,7 @@
         <v>9</v>
       </c>
       <c r="C338" s="1">
-        <v>0.1857641124704873</v>
+        <v>0.18693773961876989</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -4350,7 +4350,7 @@
         <v>13</v>
       </c>
       <c r="C343" s="1">
-        <v>7.3034060846560847E-2</v>
+        <v>7.3034060846560861E-2</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -4415,8 +4415,8 @@
       <c r="B349" t="s">
         <v>4</v>
       </c>
-      <c r="C349" s="1" t="s">
-        <v>5</v>
+      <c r="C349" s="1">
+        <v>9.6577609500891087E-2</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -4426,8 +4426,8 @@
       <c r="B350" t="s">
         <v>6</v>
       </c>
-      <c r="C350" s="1" t="s">
-        <v>5</v>
+      <c r="C350" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -4437,8 +4437,8 @@
       <c r="B351" t="s">
         <v>7</v>
       </c>
-      <c r="C351" s="1" t="s">
-        <v>5</v>
+      <c r="C351" s="1">
+        <v>0.23402467870612559</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -4448,8 +4448,8 @@
       <c r="B352" t="s">
         <v>8</v>
       </c>
-      <c r="C352" s="1" t="s">
-        <v>5</v>
+      <c r="C352" s="1">
+        <v>0.14059722613712841</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -4459,8 +4459,8 @@
       <c r="B353" t="s">
         <v>9</v>
       </c>
-      <c r="C353" s="1" t="s">
-        <v>5</v>
+      <c r="C353" s="1">
+        <v>0.13053692791263541</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -4481,8 +4481,8 @@
       <c r="B355" t="s">
         <v>35</v>
       </c>
-      <c r="C355" s="1" t="s">
-        <v>5</v>
+      <c r="C355" s="1">
+        <v>3.651810469196197E-2</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -4493,7 +4493,7 @@
         <v>11</v>
       </c>
       <c r="C356" s="1">
-        <v>1</v>
+        <v>0.99870052415424959</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -4504,7 +4504,7 @@
         <v>12</v>
       </c>
       <c r="C357" s="1">
-        <v>0</v>
+        <v>7.909831892434431E-2</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -4515,7 +4515,7 @@
         <v>13</v>
       </c>
       <c r="C358" s="1">
-        <v>0</v>
+        <v>3.3626361904023037E-2</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -4525,8 +4525,8 @@
       <c r="B359" t="s">
         <v>36</v>
       </c>
-      <c r="C359" s="1" t="s">
-        <v>5</v>
+      <c r="C359" s="1">
+        <v>0.12827017315578049</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -4537,7 +4537,7 @@
         <v>14</v>
       </c>
       <c r="C360" s="1">
-        <v>0</v>
+        <v>4.9967737188267657E-2</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -4547,13 +4547,13 @@
       <c r="B361" t="s">
         <v>15</v>
       </c>
-      <c r="C361" s="1">
-        <v>0</v>
+      <c r="C361" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4790,13 +4790,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{041CF8A7-E284-4DB5-B5B3-7357FF0C2C77}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5139C87-4E2E-4BFF-8D4D-0C19D7F95C59}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D83F18A5-B293-4EDA-93FF-A4F1CD69A518}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80E80934-6EFB-4CE5-A196-7F53EC5ED61A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51D396E9-C680-48E5-A120-E83B07D4E05E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71BFC26D-F080-4A34-B894-0A751800F51C}"/>
 </file>
--- a/Race Dashboard data/changeover.xlsx
+++ b/Race Dashboard data/changeover.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sanofi.sharepoint.com/sites/SanofixMcLarensharing/Shared Documents/General/Race Dashboard data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFD8CBFA-8612-4A76-B09E-BCEF6E90647F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="13965" windowHeight="7590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="48">
   <si>
     <t>Week</t>
   </si>
@@ -161,16 +155,19 @@
   </si>
   <si>
     <t>W27-2021</t>
+  </si>
+  <si>
+    <t>W28-2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,14 +235,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -292,7 +281,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,27 +313,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,24 +347,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -569,18 +522,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C361"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -591,7 +545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -602,7 +556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -613,7 +567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -624,7 +578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -635,7 +589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -646,7 +600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -657,7 +611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -668,7 +622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -679,7 +633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -690,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -701,7 +655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -712,7 +666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -720,10 +674,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="1">
-        <v>7.9648133914083194E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.07964813391408319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -734,7 +688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -742,10 +696,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="1">
-        <v>0.22830896686159829</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2283089668615983</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -753,10 +707,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="1">
-        <v>9.9215686274509801E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.0992156862745098</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -764,10 +718,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="1">
-        <v>0.39926686217008789</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.399266862170088</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -775,10 +729,10 @@
         <v>10</v>
       </c>
       <c r="C18" s="1">
-        <v>0.31293426643339162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3129342664333917</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -789,7 +743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -797,10 +751,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="1">
-        <v>0.68696542864087218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6869654286408721</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -808,10 +762,10 @@
         <v>13</v>
       </c>
       <c r="C21" s="1">
-        <v>0.99999421302994151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.9999942130299417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -819,10 +773,10 @@
         <v>14</v>
       </c>
       <c r="C22" s="1">
-        <v>7.0659311794063562E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.007065931179406356</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -830,10 +784,10 @@
         <v>15</v>
       </c>
       <c r="C23" s="1">
-        <v>1.3402500748963269E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.01340250074896328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -841,10 +795,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="1">
-        <v>6.6609735269000866E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.06660973526900085</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -855,7 +809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -863,10 +817,10 @@
         <v>7</v>
       </c>
       <c r="C26" s="1">
-        <v>0.31461715601611961</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3146171560161196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -874,10 +828,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="1">
-        <v>0.22210683378096091</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2221068337809609</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -885,10 +839,10 @@
         <v>9</v>
       </c>
       <c r="C28" s="1">
-        <v>0.13779112081513831</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1377911208151383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -896,10 +850,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="1">
-        <v>0.28292047576919288</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2829204757691929</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -910,7 +864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -918,10 +872,10 @@
         <v>12</v>
       </c>
       <c r="C31" s="1">
-        <v>4.6187618660157317E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.04618761866015732</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -929,10 +883,10 @@
         <v>13</v>
       </c>
       <c r="C32" s="1">
-        <v>0.24273313492063489</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.242733134920635</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -940,10 +894,10 @@
         <v>14</v>
       </c>
       <c r="C33" s="1">
-        <v>8.4261587326677878E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.08426158732667791</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -954,7 +908,7 @@
         <v>0.2135235235235235</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -965,7 +919,7 @@
         <v>0.108894903864103</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -976,7 +930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -984,10 +938,10 @@
         <v>7</v>
       </c>
       <c r="C37" s="1">
-        <v>0.22613259668508279</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2261325966850828</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -998,7 +952,7 @@
         <v>0.2366970231100666</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -1009,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1017,10 +971,10 @@
         <v>10</v>
       </c>
       <c r="C40" s="1">
-        <v>0.30219228032728562</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3021922803272857</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -1031,7 +985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -1039,10 +993,10 @@
         <v>12</v>
       </c>
       <c r="C42" s="1">
-        <v>2.719080687830688E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.02719080687830688</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -1050,10 +1004,10 @@
         <v>13</v>
       </c>
       <c r="C43" s="1">
-        <v>3.1585648148148168E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.03158564814814816</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -1061,10 +1015,10 @@
         <v>14</v>
       </c>
       <c r="C44" s="1">
-        <v>0.14638290534132001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.14638290534132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -1072,10 +1026,10 @@
         <v>15</v>
       </c>
       <c r="C45" s="1">
-        <v>0.29947502548419991</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2994750254841997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -1083,10 +1037,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="1">
-        <v>9.8149729575861114E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.09814972957586111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -1097,7 +1051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -1105,10 +1059,10 @@
         <v>7</v>
       </c>
       <c r="C48" s="1">
-        <v>0.32461323865077352</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3246132386507734</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -1116,10 +1070,10 @@
         <v>8</v>
       </c>
       <c r="C49" s="1">
-        <v>0.30524796747967481</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3052479674796748</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -1130,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -1138,10 +1092,10 @@
         <v>10</v>
       </c>
       <c r="C51" s="1">
-        <v>0.27640297498309668</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2764029749830966</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -1149,10 +1103,10 @@
         <v>11</v>
       </c>
       <c r="C52" s="1">
-        <v>0.40590711805555552</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4059071180555555</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -1160,10 +1114,10 @@
         <v>12</v>
       </c>
       <c r="C53" s="1">
-        <v>0.28575022009810092</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2857502200981009</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -1171,10 +1125,10 @@
         <v>13</v>
       </c>
       <c r="C54" s="1">
-        <v>1.7903439153439161E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.01790343915343916</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -1182,10 +1136,10 @@
         <v>14</v>
       </c>
       <c r="C55" s="1">
-        <v>0.1417488343652068</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1417488343652067</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -1196,7 +1150,7 @@
         <v>0.1027709861450693</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -1204,10 +1158,10 @@
         <v>4</v>
       </c>
       <c r="C57" s="1">
-        <v>6.4474807856532868E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.06447480785653287</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -1218,7 +1172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -1226,10 +1180,10 @@
         <v>7</v>
       </c>
       <c r="C59" s="1">
-        <v>0.1219444444444444</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1219444444444445</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -1237,10 +1191,10 @@
         <v>8</v>
       </c>
       <c r="C60" s="1">
-        <v>0.11008547008547009</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1100854700854701</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -1248,10 +1202,10 @@
         <v>9</v>
       </c>
       <c r="C61" s="1">
-        <v>0.22805569451392371</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2280556945139236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -1259,10 +1213,10 @@
         <v>10</v>
       </c>
       <c r="C62" s="1">
-        <v>0.25810085836909868</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2581008583690987</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -1270,10 +1224,10 @@
         <v>11</v>
       </c>
       <c r="C63" s="1">
-        <v>1.380621693121694E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.01380621693121693</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -1284,7 +1238,7 @@
         <v>0.1866501322751323</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -1292,10 +1246,10 @@
         <v>13</v>
       </c>
       <c r="C65" s="1">
-        <v>2.7225853304284689E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.02722585330428469</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -1303,10 +1257,10 @@
         <v>14</v>
       </c>
       <c r="C66" s="1">
-        <v>0.13353978978978981</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1335397897897898</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -1314,10 +1268,10 @@
         <v>15</v>
       </c>
       <c r="C67" s="1">
-        <v>0.24817067067067061</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2481706706706707</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -1328,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -1339,7 +1293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -1347,10 +1301,10 @@
         <v>7</v>
       </c>
       <c r="C70" s="1">
-        <v>0.20983336277453921</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2098333627745392</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -1358,10 +1312,10 @@
         <v>8</v>
       </c>
       <c r="C71" s="1">
-        <v>3.9258771929824562E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.03925877192982457</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -1369,10 +1323,10 @@
         <v>9</v>
       </c>
       <c r="C72" s="1">
-        <v>0.13059680384669781</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1305968038466978</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -1380,10 +1334,10 @@
         <v>10</v>
       </c>
       <c r="C73" s="1">
-        <v>0.34907159833630419</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3490715983363041</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -1391,10 +1345,10 @@
         <v>11</v>
       </c>
       <c r="C74" s="1">
-        <v>9.8213653423978503E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.09821365342397848</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -1402,10 +1356,10 @@
         <v>12</v>
       </c>
       <c r="C75" s="1">
-        <v>0.28120783730158733</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2812078373015873</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -1413,10 +1367,10 @@
         <v>13</v>
       </c>
       <c r="C76" s="1">
-        <v>0.67147393780113884</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6714739378011387</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -1424,10 +1378,10 @@
         <v>14</v>
       </c>
       <c r="C77" s="1">
-        <v>0.1516816816816817</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1516816816816816</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>21</v>
       </c>
@@ -1435,10 +1389,10 @@
         <v>15</v>
       </c>
       <c r="C78" s="1">
-        <v>0.25267267267267268</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2526726726726727</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>22</v>
       </c>
@@ -1446,10 +1400,10 @@
         <v>4</v>
       </c>
       <c r="C79" s="1">
-        <v>1.520901697817093E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.01520901697817092</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>22</v>
       </c>
@@ -1460,7 +1414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -1468,10 +1422,10 @@
         <v>7</v>
       </c>
       <c r="C81" s="1">
-        <v>0.24431988041853511</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.244319880418535</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>22</v>
       </c>
@@ -1479,10 +1433,10 @@
         <v>8</v>
       </c>
       <c r="C82" s="1">
-        <v>0.16429580081753989</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1642958008175399</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>22</v>
       </c>
@@ -1490,10 +1444,10 @@
         <v>9</v>
       </c>
       <c r="C83" s="1">
-        <v>0.13570708089570299</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.135707080895703</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>22</v>
       </c>
@@ -1504,7 +1458,7 @@
         <v>0.1340716043502421</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>22</v>
       </c>
@@ -1512,10 +1466,10 @@
         <v>11</v>
       </c>
       <c r="C85" s="1">
-        <v>0.49416737348035039</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4941673734803505</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>22</v>
       </c>
@@ -1526,7 +1480,7 @@
         <v>0.1145982142857143</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -1534,10 +1488,10 @@
         <v>13</v>
       </c>
       <c r="C87" s="1">
-        <v>6.7769510582010598E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.0677695105820106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -1545,10 +1499,10 @@
         <v>14</v>
       </c>
       <c r="C88" s="1">
-        <v>2.364990689013035E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.02364990689013035</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>22</v>
       </c>
@@ -1556,10 +1510,10 @@
         <v>15</v>
       </c>
       <c r="C89" s="1">
-        <v>0.24691395871653379</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2469139587165338</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>23</v>
       </c>
@@ -1567,10 +1521,10 @@
         <v>4</v>
       </c>
       <c r="C90" s="1">
-        <v>3.8775726713346073E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.03877572671334607</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -1581,7 +1535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -1589,10 +1543,10 @@
         <v>7</v>
       </c>
       <c r="C92" s="1">
-        <v>0.33626149131767108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3362614913176711</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>23</v>
       </c>
@@ -1603,7 +1557,7 @@
         <v>0.1512882917964693</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -1614,7 +1568,7 @@
         <v>0.160604463187489</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>23</v>
       </c>
@@ -1622,10 +1576,10 @@
         <v>10</v>
       </c>
       <c r="C95" s="1">
-        <v>0.35283874409388799</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3528387440938881</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>23</v>
       </c>
@@ -1636,7 +1590,7 @@
         <v>0.423828125</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>23</v>
       </c>
@@ -1644,10 +1598,10 @@
         <v>12</v>
       </c>
       <c r="C97" s="1">
-        <v>0.10957506613756619</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1095750661375662</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>23</v>
       </c>
@@ -1655,10 +1609,10 @@
         <v>13</v>
       </c>
       <c r="C98" s="1">
-        <v>2.3913690476190481E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.02391369047619048</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -1669,7 +1623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -1677,10 +1631,10 @@
         <v>15</v>
       </c>
       <c r="C100" s="1">
-        <v>0.30479520217892309</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3047952021789232</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>24</v>
       </c>
@@ -1688,10 +1642,10 @@
         <v>4</v>
       </c>
       <c r="C101" s="1">
-        <v>6.0797881428327337E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.06079788142832734</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>24</v>
       </c>
@@ -1702,7 +1656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>24</v>
       </c>
@@ -1710,10 +1664,10 @@
         <v>7</v>
       </c>
       <c r="C103" s="1">
-        <v>0.31358635863586348</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3135863586358636</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>24</v>
       </c>
@@ -1721,10 +1675,10 @@
         <v>8</v>
       </c>
       <c r="C104" s="1">
-        <v>0.19991457372287719</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1999145737228772</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>24</v>
       </c>
@@ -1732,10 +1686,10 @@
         <v>9</v>
       </c>
       <c r="C105" s="1">
-        <v>0.17724954462659381</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1772495446265938</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>24</v>
       </c>
@@ -1743,10 +1697,10 @@
         <v>10</v>
       </c>
       <c r="C106" s="1">
-        <v>0.14501184522242691</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1450118452224269</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>24</v>
       </c>
@@ -1754,10 +1708,10 @@
         <v>11</v>
       </c>
       <c r="C107" s="1">
-        <v>0.23198247354497359</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2319824735449736</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>24</v>
       </c>
@@ -1765,10 +1719,10 @@
         <v>12</v>
       </c>
       <c r="C108" s="1">
-        <v>3.8017526455026471E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.03801752645502646</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>24</v>
       </c>
@@ -1776,10 +1730,10 @@
         <v>13</v>
       </c>
       <c r="C109" s="1">
-        <v>3.8105158730158739E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.03810515873015874</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>24</v>
       </c>
@@ -1790,7 +1744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>24</v>
       </c>
@@ -1798,10 +1752,10 @@
         <v>15</v>
       </c>
       <c r="C111" s="1">
-        <v>0.35684631394457222</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3568463139445721</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>25</v>
       </c>
@@ -1809,10 +1763,10 @@
         <v>4</v>
       </c>
       <c r="C112" s="1">
-        <v>3.7704075073916959E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.03770407507391696</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>25</v>
       </c>
@@ -1823,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>25</v>
       </c>
@@ -1831,10 +1785,10 @@
         <v>7</v>
       </c>
       <c r="C114" s="1">
-        <v>8.1773301737756737E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.0817733017377567</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>25</v>
       </c>
@@ -1842,10 +1796,10 @@
         <v>8</v>
       </c>
       <c r="C115" s="1">
-        <v>8.0279648335203874E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.08027964833520389</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>25</v>
       </c>
@@ -1856,7 +1810,7 @@
         <v>0.1499003487792725</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>25</v>
       </c>
@@ -1864,10 +1818,10 @@
         <v>10</v>
       </c>
       <c r="C117" s="1">
-        <v>0.17808219178082199</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.178082191780822</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>25</v>
       </c>
@@ -1878,7 +1832,7 @@
         <v>0.1596354166666667</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>25</v>
       </c>
@@ -1889,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>25</v>
       </c>
@@ -1897,10 +1851,10 @@
         <v>13</v>
       </c>
       <c r="C120" s="1">
-        <v>0.43936848958333319</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4393684895833332</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>25</v>
       </c>
@@ -1908,10 +1862,10 @@
         <v>14</v>
       </c>
       <c r="C121" s="1">
-        <v>4.7818767383984759E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.04781876738398477</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>25</v>
       </c>
@@ -1919,10 +1873,10 @@
         <v>15</v>
       </c>
       <c r="C122" s="1">
-        <v>0.15929809588376381</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1592980958837639</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>26</v>
       </c>
@@ -1930,10 +1884,10 @@
         <v>4</v>
       </c>
       <c r="C123" s="1">
-        <v>5.4127526330771412E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.05412752633077141</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>26</v>
       </c>
@@ -1944,7 +1898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>26</v>
       </c>
@@ -1952,10 +1906,10 @@
         <v>7</v>
       </c>
       <c r="C125" s="1">
-        <v>0.2355806938159879</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2355806938159878</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>26</v>
       </c>
@@ -1963,10 +1917,10 @@
         <v>8</v>
       </c>
       <c r="C126" s="1">
-        <v>0.19623541887592791</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1962354188759279</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>26</v>
       </c>
@@ -1977,7 +1931,7 @@
         <v>0.1208610004426737</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>26</v>
       </c>
@@ -1988,7 +1942,7 @@
         <v>0.2466126268617371</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>26</v>
       </c>
@@ -1996,10 +1950,10 @@
         <v>11</v>
       </c>
       <c r="C129" s="1">
-        <v>4.9227703039362233E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.04922770303936224</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>26</v>
       </c>
@@ -2010,7 +1964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>26</v>
       </c>
@@ -2018,10 +1972,10 @@
         <v>13</v>
       </c>
       <c r="C131" s="1">
-        <v>1.410052910052911E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.0141005291005291</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>26</v>
       </c>
@@ -2029,10 +1983,10 @@
         <v>14</v>
       </c>
       <c r="C132" s="1">
-        <v>6.5476190476190479E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.06547619047619048</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>26</v>
       </c>
@@ -2040,10 +1994,10 @@
         <v>15</v>
       </c>
       <c r="C133" s="1">
-        <v>0.18096926713947989</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1809692671394799</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>27</v>
       </c>
@@ -2051,10 +2005,10 @@
         <v>4</v>
       </c>
       <c r="C134" s="1">
-        <v>5.3481354967264458E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.05348135496726446</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>27</v>
       </c>
@@ -2065,7 +2019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>27</v>
       </c>
@@ -2076,7 +2030,7 @@
         <v>0.2864095589663882</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>27</v>
       </c>
@@ -2084,10 +2038,10 @@
         <v>8</v>
       </c>
       <c r="C137" s="1">
-        <v>0.31244622189904858</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3124462218990486</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>27</v>
       </c>
@@ -2095,10 +2049,10 @@
         <v>9</v>
       </c>
       <c r="C138" s="1">
-        <v>0.21844841930116471</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2184484193011647</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>27</v>
       </c>
@@ -2106,10 +2060,10 @@
         <v>10</v>
       </c>
       <c r="C139" s="1">
-        <v>0.59282503457814661</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5928250345781466</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>27</v>
       </c>
@@ -2117,10 +2071,10 @@
         <v>11</v>
       </c>
       <c r="C140" s="1">
-        <v>2.973220226214239E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.02973220226214239</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>27</v>
       </c>
@@ -2131,7 +2085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>27</v>
       </c>
@@ -2139,10 +2093,10 @@
         <v>13</v>
       </c>
       <c r="C142" s="1">
-        <v>3.384065202927479E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.03384065202927478</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>27</v>
       </c>
@@ -2150,10 +2104,10 @@
         <v>14</v>
       </c>
       <c r="C143" s="1">
-        <v>0.22961590712609611</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2296159071260961</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>27</v>
       </c>
@@ -2164,7 +2118,7 @@
         <v>0.1163786205792927</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>28</v>
       </c>
@@ -2175,7 +2129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>28</v>
       </c>
@@ -2186,7 +2140,7 @@
         <v>0.184957561728395</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>28</v>
       </c>
@@ -2194,10 +2148,10 @@
         <v>4</v>
       </c>
       <c r="C147" s="1">
-        <v>4.4139940041857582E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.04413994004185758</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>28</v>
       </c>
@@ -2205,10 +2159,10 @@
         <v>6</v>
       </c>
       <c r="C148" s="1">
-        <v>8.1870595771941057E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.08187059577194107</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>28</v>
       </c>
@@ -2216,10 +2170,10 @@
         <v>7</v>
       </c>
       <c r="C149" s="1">
-        <v>0.20938417190775679</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2093841719077568</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>28</v>
       </c>
@@ -2227,10 +2181,10 @@
         <v>8</v>
       </c>
       <c r="C150" s="1">
-        <v>7.0836111111111114E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.07083611111111111</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>28</v>
       </c>
@@ -2238,10 +2192,10 @@
         <v>9</v>
       </c>
       <c r="C151" s="1">
-        <v>0.13427149802491639</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1342714980249164</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>28</v>
       </c>
@@ -2249,10 +2203,10 @@
         <v>10</v>
       </c>
       <c r="C152" s="1">
-        <v>0.13265527529156501</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.132655275291565</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>28</v>
       </c>
@@ -2260,10 +2214,10 @@
         <v>11</v>
       </c>
       <c r="C153" s="1">
-        <v>0.78978102189781019</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.7897810218978102</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>28</v>
       </c>
@@ -2274,7 +2228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>28</v>
       </c>
@@ -2282,10 +2236,10 @@
         <v>13</v>
       </c>
       <c r="C155" s="1">
-        <v>3.5163690476190487E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.03516369047619049</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>28</v>
       </c>
@@ -2293,10 +2247,10 @@
         <v>14</v>
       </c>
       <c r="C156" s="1">
-        <v>0.1788058792171198</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1788058792171197</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>28</v>
       </c>
@@ -2304,10 +2258,10 @@
         <v>15</v>
       </c>
       <c r="C157" s="1">
-        <v>7.5189271036123717E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.07518927103612372</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>31</v>
       </c>
@@ -2318,7 +2272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>31</v>
       </c>
@@ -2326,10 +2280,10 @@
         <v>30</v>
       </c>
       <c r="C159" s="1">
-        <v>0.10123148148148151</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1012314814814815</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>31</v>
       </c>
@@ -2337,10 +2291,10 @@
         <v>4</v>
       </c>
       <c r="C160" s="1">
-        <v>2.3718763235916981E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.02371876323591698</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>31</v>
       </c>
@@ -2351,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>31</v>
       </c>
@@ -2362,7 +2316,7 @@
         <v>0.1456875097215741</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>31</v>
       </c>
@@ -2370,10 +2324,10 @@
         <v>8</v>
       </c>
       <c r="C163" s="1">
-        <v>0.19179324894514771</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1917932489451477</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>31</v>
       </c>
@@ -2384,7 +2338,7 @@
         <v>0.1379027219991075</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>31</v>
       </c>
@@ -2392,10 +2346,10 @@
         <v>10</v>
       </c>
       <c r="C165" s="1">
-        <v>0.19515865227347079</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1951586522734708</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>31</v>
       </c>
@@ -2403,10 +2357,10 @@
         <v>11</v>
       </c>
       <c r="C166" s="1">
-        <v>9.5404285971546918E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.09540428597154695</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>31</v>
       </c>
@@ -2417,7 +2371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>31</v>
       </c>
@@ -2425,10 +2379,10 @@
         <v>13</v>
       </c>
       <c r="C168" s="1">
-        <v>0.36947036771157382</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3694703677115738</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>31</v>
       </c>
@@ -2436,10 +2390,10 @@
         <v>14</v>
       </c>
       <c r="C169" s="1">
-        <v>0.13230246032795259</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1323024603279525</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>31</v>
       </c>
@@ -2447,10 +2401,10 @@
         <v>15</v>
       </c>
       <c r="C170" s="1">
-        <v>0.36695463650979082</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3669546365097908</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>32</v>
       </c>
@@ -2458,10 +2412,10 @@
         <v>29</v>
       </c>
       <c r="C171" s="1">
-        <v>8.7039035145704755E-2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.08703903514570475</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>32</v>
       </c>
@@ -2469,10 +2423,10 @@
         <v>30</v>
       </c>
       <c r="C172" s="1">
-        <v>5.6547067901234573E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.05654706790123456</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>32</v>
       </c>
@@ -2480,10 +2434,10 @@
         <v>4</v>
       </c>
       <c r="C173" s="1">
-        <v>5.9362889983579643E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.05936288998357964</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>32</v>
       </c>
@@ -2494,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>32</v>
       </c>
@@ -2502,10 +2456,10 @@
         <v>7</v>
       </c>
       <c r="C175" s="1">
-        <v>0.36286975717439279</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3628697571743929</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>32</v>
       </c>
@@ -2513,10 +2467,10 @@
         <v>8</v>
       </c>
       <c r="C176" s="1">
-        <v>0.21265900830737269</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2126590083073728</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>32</v>
       </c>
@@ -2527,7 +2481,7 @@
         <v>0.108713294968275</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>32</v>
       </c>
@@ -2535,10 +2489,10 @@
         <v>10</v>
       </c>
       <c r="C178" s="1">
-        <v>0.44798173515981721</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4479817351598173</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>32</v>
       </c>
@@ -2546,10 +2500,10 @@
         <v>11</v>
       </c>
       <c r="C179" s="1">
-        <v>0.39041677441599859</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3904167744159986</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>32</v>
       </c>
@@ -2560,7 +2514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>32</v>
       </c>
@@ -2571,7 +2525,7 @@
         <v>0.1007539682539683</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>32</v>
       </c>
@@ -2579,10 +2533,10 @@
         <v>14</v>
       </c>
       <c r="C182" s="1">
-        <v>9.0419967120011907E-3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.009041996712001191</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>32</v>
       </c>
@@ -2590,10 +2544,10 @@
         <v>15</v>
       </c>
       <c r="C183" s="1">
-        <v>0.13008931460259901</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.130089314602599</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>33</v>
       </c>
@@ -2604,7 +2558,7 @@
         <v>0.1227272727272727</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>33</v>
       </c>
@@ -2612,10 +2566,10 @@
         <v>30</v>
       </c>
       <c r="C185" s="1">
-        <v>8.5173611111111103E-2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.08517361111111112</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>33</v>
       </c>
@@ -2623,10 +2577,10 @@
         <v>4</v>
       </c>
       <c r="C186" s="1">
-        <v>2.2213468720821659E-2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.02221346872082166</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>33</v>
       </c>
@@ -2637,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>33</v>
       </c>
@@ -2648,7 +2602,7 @@
         <v>0.2810539523212045</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>33</v>
       </c>
@@ -2656,10 +2610,10 @@
         <v>8</v>
       </c>
       <c r="C189" s="1">
-        <v>0.2391956438670233</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2391956438670234</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>33</v>
       </c>
@@ -2667,10 +2621,10 @@
         <v>9</v>
       </c>
       <c r="C190" s="1">
-        <v>0.17313789632611981</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1731378963261197</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>33</v>
       </c>
@@ -2678,10 +2632,10 @@
         <v>10</v>
       </c>
       <c r="C191" s="1">
-        <v>0.31704221120624898</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3170422112062491</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>33</v>
       </c>
@@ -2689,10 +2643,10 @@
         <v>11</v>
       </c>
       <c r="C192" s="1">
-        <v>3.3240997229916913E-2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.0332409972299169</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>33</v>
       </c>
@@ -2703,7 +2657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>33</v>
       </c>
@@ -2711,10 +2665,10 @@
         <v>13</v>
       </c>
       <c r="C194" s="1">
-        <v>3.9798280423280437E-2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.03979828042328043</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>33</v>
       </c>
@@ -2722,10 +2676,10 @@
         <v>14</v>
       </c>
       <c r="C195" s="1">
-        <v>7.3062531709791975E-2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.07306253170979198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>33</v>
       </c>
@@ -2733,10 +2687,10 @@
         <v>15</v>
       </c>
       <c r="C196" s="1">
-        <v>3.6253352840770532E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.03625335284077053</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>34</v>
       </c>
@@ -2744,10 +2698,10 @@
         <v>29</v>
       </c>
       <c r="C197" s="1">
-        <v>6.3260967887833572E-2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.06326096788783356</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>34</v>
       </c>
@@ -2755,10 +2709,10 @@
         <v>30</v>
       </c>
       <c r="C198" s="1">
-        <v>7.2827932098765438E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.07282793209876544</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>34</v>
       </c>
@@ -2766,10 +2720,10 @@
         <v>4</v>
       </c>
       <c r="C199" s="1">
-        <v>1.9038076152304611E-2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.0190380761523046</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
         <v>34</v>
       </c>
@@ -2780,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>34</v>
       </c>
@@ -2791,7 +2745,7 @@
         <v>0.1098765432098766</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>34</v>
       </c>
@@ -2799,10 +2753,10 @@
         <v>8</v>
       </c>
       <c r="C202" s="1">
-        <v>0.11134302689180731</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1113430268918073</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>34</v>
       </c>
@@ -2810,10 +2764,10 @@
         <v>9</v>
       </c>
       <c r="C203" s="1">
-        <v>0.16843734723806431</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1684373472380642</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
         <v>34</v>
       </c>
@@ -2824,7 +2778,7 @@
         <v>0.2358893461362597</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>34</v>
       </c>
@@ -2835,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>34</v>
       </c>
@@ -2843,10 +2797,10 @@
         <v>11</v>
       </c>
       <c r="C206" s="1">
-        <v>2.9189814814814821E-2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.02918981481481482</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
         <v>34</v>
       </c>
@@ -2854,10 +2808,10 @@
         <v>12</v>
       </c>
       <c r="C207" s="1">
-        <v>0.1934375000000001</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1934375</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
         <v>34</v>
       </c>
@@ -2865,10 +2819,10 @@
         <v>13</v>
       </c>
       <c r="C208" s="1">
-        <v>4.2180886243386242E-2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.04218088624338626</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>34</v>
       </c>
@@ -2879,7 +2833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>34</v>
       </c>
@@ -2890,7 +2844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
         <v>34</v>
       </c>
@@ -2898,10 +2852,10 @@
         <v>15</v>
       </c>
       <c r="C211" s="1">
-        <v>0.15852303280157731</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1585230328015773</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
         <v>37</v>
       </c>
@@ -2909,10 +2863,10 @@
         <v>29</v>
       </c>
       <c r="C212" s="1">
-        <v>8.9293351929335199E-2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.08929335192933521</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
         <v>37</v>
       </c>
@@ -2923,7 +2877,7 @@
         <v>0.1002546296296296</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
         <v>37</v>
       </c>
@@ -2931,10 +2885,10 @@
         <v>4</v>
       </c>
       <c r="C214" s="1">
-        <v>1.693364658977645E-2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.01693364658977645</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
         <v>37</v>
       </c>
@@ -2942,10 +2896,10 @@
         <v>6</v>
       </c>
       <c r="C215" s="1">
-        <v>5.538461538461539E-3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.005538461538461539</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
         <v>37</v>
       </c>
@@ -2956,7 +2910,7 @@
         <v>0.2235213139656318</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
         <v>37</v>
       </c>
@@ -2964,10 +2918,10 @@
         <v>8</v>
       </c>
       <c r="C217" s="1">
-        <v>0.19747097844112771</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1974709784411277</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
         <v>37</v>
       </c>
@@ -2975,10 +2929,10 @@
         <v>9</v>
       </c>
       <c r="C218" s="1">
-        <v>0.14436763952892981</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1443676395289298</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
         <v>37</v>
       </c>
@@ -2986,10 +2940,10 @@
         <v>10</v>
       </c>
       <c r="C219" s="1">
-        <v>0.3413615023474178</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3413615023474179</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
         <v>37</v>
       </c>
@@ -3000,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
         <v>37</v>
       </c>
@@ -3008,10 +2962,10 @@
         <v>11</v>
       </c>
       <c r="C221" s="1">
-        <v>3.7331349206349222E-2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.03733134920634921</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
         <v>37</v>
       </c>
@@ -3019,10 +2973,10 @@
         <v>12</v>
       </c>
       <c r="C222" s="1">
-        <v>4.5934790867958417E-2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.04593479086795842</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
         <v>37</v>
       </c>
@@ -3030,10 +2984,10 @@
         <v>13</v>
       </c>
       <c r="C223" s="1">
-        <v>6.0702711640211647E-2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.06070271164021165</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
         <v>37</v>
       </c>
@@ -3041,10 +2995,10 @@
         <v>36</v>
       </c>
       <c r="C224" s="1">
-        <v>4.2316652413671087E-2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.04231665241367107</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
         <v>37</v>
       </c>
@@ -3052,10 +3006,10 @@
         <v>14</v>
       </c>
       <c r="C225" s="1">
-        <v>5.1255718420315559E-2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.05125571842031555</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
         <v>37</v>
       </c>
@@ -3063,10 +3017,10 @@
         <v>15</v>
       </c>
       <c r="C226" s="1">
-        <v>0.14370820133755721</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1437082013375572</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
         <v>38</v>
       </c>
@@ -3074,10 +3028,10 @@
         <v>29</v>
       </c>
       <c r="C227" s="1">
-        <v>6.0572663425175581E-2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.06057266342517557</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
         <v>38</v>
       </c>
@@ -3085,10 +3039,10 @@
         <v>30</v>
       </c>
       <c r="C228" s="1">
-        <v>8.932431810864265E-2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.08932431810864266</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
         <v>38</v>
       </c>
@@ -3099,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
         <v>38</v>
       </c>
@@ -3107,10 +3061,10 @@
         <v>6</v>
       </c>
       <c r="C230" s="1">
-        <v>9.401709401709403E-2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.09401709401709403</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
         <v>38</v>
       </c>
@@ -3118,10 +3072,10 @@
         <v>7</v>
       </c>
       <c r="C231" s="1">
-        <v>0.23377092846270919</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2337709284627092</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
         <v>38</v>
       </c>
@@ -3129,10 +3083,10 @@
         <v>8</v>
       </c>
       <c r="C232" s="1">
-        <v>0.1582630098452884</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1582630098452883</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
         <v>38</v>
       </c>
@@ -3140,10 +3094,10 @@
         <v>9</v>
       </c>
       <c r="C233" s="1">
-        <v>0.22365209471766839</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2236520947176684</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
         <v>38</v>
       </c>
@@ -3151,10 +3105,10 @@
         <v>10</v>
       </c>
       <c r="C234" s="1">
-        <v>0.38887052341597778</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3888705234159778</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
         <v>38</v>
       </c>
@@ -3162,10 +3116,10 @@
         <v>35</v>
       </c>
       <c r="C235" s="1">
-        <v>1.656113005358013E-2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.01656113005358013</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
         <v>38</v>
       </c>
@@ -3176,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
         <v>38</v>
       </c>
@@ -3184,10 +3138,10 @@
         <v>12</v>
       </c>
       <c r="C237" s="1">
-        <v>3.7875013838149008E-2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.03787501383814901</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
         <v>38</v>
       </c>
@@ -3195,10 +3149,10 @@
         <v>13</v>
       </c>
       <c r="C238" s="1">
-        <v>0.5800269905533062</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5800269905533064</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
         <v>38</v>
       </c>
@@ -3206,10 +3160,10 @@
         <v>36</v>
       </c>
       <c r="C239" s="1">
-        <v>2.561607507139944E-2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.02561607507139943</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
         <v>38</v>
       </c>
@@ -3220,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
         <v>38</v>
       </c>
@@ -3228,10 +3182,10 @@
         <v>15</v>
       </c>
       <c r="C241" s="1">
-        <v>0.14464603344005689</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1446460334400569</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
         <v>39</v>
       </c>
@@ -3242,7 +3196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
         <v>39</v>
       </c>
@@ -3250,10 +3204,10 @@
         <v>30</v>
       </c>
       <c r="C243" s="1">
-        <v>4.2577160493827169E-2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.04257716049382717</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
         <v>39</v>
       </c>
@@ -3261,10 +3215,10 @@
         <v>4</v>
       </c>
       <c r="C244" s="1">
-        <v>2.9688592310136631E-2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.02968859231013663</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
         <v>39</v>
       </c>
@@ -3272,10 +3226,10 @@
         <v>6</v>
       </c>
       <c r="C245" s="1">
-        <v>4.4880000000000003E-2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.04488</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
         <v>39</v>
       </c>
@@ -3283,10 +3237,10 @@
         <v>7</v>
       </c>
       <c r="C246" s="1">
-        <v>0.29128205128205131</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2912820512820512</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
         <v>39</v>
       </c>
@@ -3294,10 +3248,10 @@
         <v>8</v>
       </c>
       <c r="C247" s="1">
-        <v>0.19958506224066391</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1995850622406639</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
         <v>39</v>
       </c>
@@ -3308,7 +3262,7 @@
         <v>0.1148505924781041</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
         <v>39</v>
       </c>
@@ -3316,10 +3270,10 @@
         <v>10</v>
       </c>
       <c r="C249" s="1">
-        <v>0.23980594918932721</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2398059491893271</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
         <v>39</v>
       </c>
@@ -3327,10 +3281,10 @@
         <v>35</v>
       </c>
       <c r="C250" s="1">
-        <v>4.0156780970033987E-2</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.04015678097003399</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
         <v>39</v>
       </c>
@@ -3338,10 +3292,10 @@
         <v>11</v>
       </c>
       <c r="C251" s="1">
-        <v>0.99999999999999978</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
         <v>39</v>
       </c>
@@ -3349,10 +3303,10 @@
         <v>12</v>
       </c>
       <c r="C252" s="1">
-        <v>7.8635507618558489E-2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.07863550761855848</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
         <v>39</v>
       </c>
@@ -3360,10 +3314,10 @@
         <v>13</v>
       </c>
       <c r="C253" s="1">
-        <v>0.1613285396336244</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1613285396336245</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
         <v>39</v>
       </c>
@@ -3374,7 +3328,7 @@
         <v>0.1538210320052254</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
         <v>39</v>
       </c>
@@ -3385,7 +3339,7 @@
         <v>0.1025913310325277</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
         <v>39</v>
       </c>
@@ -3393,10 +3347,10 @@
         <v>15</v>
       </c>
       <c r="C256" s="1">
-        <v>0.196068466828479</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1960684668284789</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257" t="s">
         <v>40</v>
       </c>
@@ -3407,7 +3361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3">
       <c r="A258" t="s">
         <v>40</v>
       </c>
@@ -3418,7 +3372,7 @@
         <v>0.108364929671868</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3">
       <c r="A259" t="s">
         <v>40</v>
       </c>
@@ -3426,10 +3380,10 @@
         <v>4</v>
       </c>
       <c r="C259" s="1">
-        <v>6.3281250000000011E-2</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.06328125</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
       <c r="A260" t="s">
         <v>40</v>
       </c>
@@ -3440,7 +3394,7 @@
         <v>0.1016773504273504</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3">
       <c r="A261" t="s">
         <v>40</v>
       </c>
@@ -3448,10 +3402,10 @@
         <v>7</v>
       </c>
       <c r="C261" s="1">
-        <v>0.33141334501387049</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3314133450138706</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
       <c r="A262" t="s">
         <v>40</v>
       </c>
@@ -3459,10 +3413,10 @@
         <v>8</v>
       </c>
       <c r="C262" s="1">
-        <v>0.17531842818428181</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1753184281842818</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
       <c r="A263" t="s">
         <v>40</v>
       </c>
@@ -3470,10 +3424,10 @@
         <v>9</v>
       </c>
       <c r="C263" s="1">
-        <v>0.1597289356459104</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1597289356459103</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
       <c r="A264" t="s">
         <v>40</v>
       </c>
@@ -3484,7 +3438,7 @@
         <v>0.1234268484530676</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3">
       <c r="A265" t="s">
         <v>40</v>
       </c>
@@ -3492,10 +3446,10 @@
         <v>35</v>
       </c>
       <c r="C265" s="1">
-        <v>2.4480757483200971E-2</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.02448075748320097</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
       <c r="A266" t="s">
         <v>40</v>
       </c>
@@ -3503,10 +3457,10 @@
         <v>11</v>
       </c>
       <c r="C266" s="1">
-        <v>0.62659033078880411</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.626590330788804</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
       <c r="A267" t="s">
         <v>40</v>
       </c>
@@ -3517,7 +3471,7 @@
         <v>0.3471259985475672</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3">
       <c r="A268" t="s">
         <v>40</v>
       </c>
@@ -3525,10 +3479,10 @@
         <v>13</v>
       </c>
       <c r="C268" s="1">
-        <v>3.7281746031746048E-2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.03728174603174604</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
       <c r="A269" t="s">
         <v>40</v>
       </c>
@@ -3536,10 +3490,10 @@
         <v>36</v>
       </c>
       <c r="C269" s="1">
-        <v>8.040213478962395E-2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.08040213478962398</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
       <c r="A270" t="s">
         <v>40</v>
       </c>
@@ -3547,10 +3501,10 @@
         <v>14</v>
       </c>
       <c r="C270" s="1">
-        <v>4.2122029149595577E-2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.04212202914959556</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
       <c r="A271" t="s">
         <v>40</v>
       </c>
@@ -3561,7 +3515,7 @@
         <v>0.163872169676125</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3">
       <c r="A272" t="s">
         <v>41</v>
       </c>
@@ -3569,10 +3523,10 @@
         <v>29</v>
       </c>
       <c r="C272" s="1">
-        <v>8.8888888888888878E-2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.08888888888888888</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
       <c r="A273" t="s">
         <v>41</v>
       </c>
@@ -3580,10 +3534,10 @@
         <v>30</v>
       </c>
       <c r="C273" s="1">
-        <v>8.1319444444444458E-2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.08131944444444449</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
       <c r="A274" t="s">
         <v>41</v>
       </c>
@@ -3591,10 +3545,10 @@
         <v>4</v>
       </c>
       <c r="C274" s="1">
-        <v>9.3814403643609448E-2</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.09381440364360945</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
       <c r="A275" t="s">
         <v>41</v>
       </c>
@@ -3602,10 +3556,10 @@
         <v>6</v>
       </c>
       <c r="C275" s="1">
-        <v>7.6282051282051289E-2</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.07628205128205129</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
       <c r="A276" t="s">
         <v>41</v>
       </c>
@@ -3616,7 +3570,7 @@
         <v>0.2249355158730158</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3">
       <c r="A277" t="s">
         <v>41</v>
       </c>
@@ -3624,10 +3578,10 @@
         <v>8</v>
       </c>
       <c r="C277" s="1">
-        <v>0.16237517831669041</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1623751783166905</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
       <c r="A278" t="s">
         <v>41</v>
       </c>
@@ -3635,10 +3589,10 @@
         <v>9</v>
       </c>
       <c r="C278" s="1">
-        <v>0.13454341858112989</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1345434185811299</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
       <c r="A279" t="s">
         <v>41</v>
       </c>
@@ -3646,10 +3600,10 @@
         <v>10</v>
       </c>
       <c r="C279" s="1">
-        <v>0.30893474752132799</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.308934747521328</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
       <c r="A280" t="s">
         <v>41</v>
       </c>
@@ -3657,10 +3611,10 @@
         <v>35</v>
       </c>
       <c r="C280" s="1">
-        <v>0.20583512544802859</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2058351254480286</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
       <c r="A281" t="s">
         <v>41</v>
       </c>
@@ -3668,10 +3622,10 @@
         <v>11</v>
       </c>
       <c r="C281" s="1">
-        <v>3.8184523809523807E-2</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.03818452380952381</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
       <c r="A282" t="s">
         <v>41</v>
       </c>
@@ -3679,10 +3633,10 @@
         <v>12</v>
       </c>
       <c r="C282" s="1">
-        <v>3.4568452380952387E-2</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.03456845238095239</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
       <c r="A283" t="s">
         <v>41</v>
       </c>
@@ -3690,10 +3644,10 @@
         <v>13</v>
       </c>
       <c r="C283" s="1">
-        <v>4.1755096087226037E-2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.04175509608722604</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
       <c r="A284" t="s">
         <v>41</v>
       </c>
@@ -3704,7 +3658,7 @@
         <v>0.1147000565930956</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3">
       <c r="A285" t="s">
         <v>41</v>
       </c>
@@ -3712,10 +3666,10 @@
         <v>14</v>
       </c>
       <c r="C285" s="1">
-        <v>7.0790216368767636E-3</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.007079021636876764</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
       <c r="A286" t="s">
         <v>41</v>
       </c>
@@ -3723,10 +3677,10 @@
         <v>15</v>
       </c>
       <c r="C286" s="1">
-        <v>5.7577413479052819E-2</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.05757741347905282</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
       <c r="A287" t="s">
         <v>42</v>
       </c>
@@ -3734,10 +3688,10 @@
         <v>29</v>
       </c>
       <c r="C287" s="1">
-        <v>6.0615602836879411E-2</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.06061560283687942</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
       <c r="A288" t="s">
         <v>42</v>
       </c>
@@ -3745,10 +3699,10 @@
         <v>30</v>
       </c>
       <c r="C288" s="1">
-        <v>6.9909186168354842E-2</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.06990918616835484</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
       <c r="A289" t="s">
         <v>42</v>
       </c>
@@ -3756,10 +3710,10 @@
         <v>4</v>
       </c>
       <c r="C289" s="1">
-        <v>3.2088006902502159E-2</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.03208800690250216</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
       <c r="A290" t="s">
         <v>42</v>
       </c>
@@ -3770,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3">
       <c r="A291" t="s">
         <v>42</v>
       </c>
@@ -3778,10 +3732,10 @@
         <v>7</v>
       </c>
       <c r="C291" s="1">
-        <v>0.18210368466152529</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1821036846615253</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
       <c r="A292" t="s">
         <v>42</v>
       </c>
@@ -3789,10 +3743,10 @@
         <v>8</v>
       </c>
       <c r="C292" s="1">
-        <v>0.2299521072796934</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2299521072796935</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
       <c r="A293" t="s">
         <v>42</v>
       </c>
@@ -3800,10 +3754,10 @@
         <v>9</v>
       </c>
       <c r="C293" s="1">
-        <v>0.23681949784042899</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.236819497840429</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
       <c r="A294" t="s">
         <v>42</v>
       </c>
@@ -3811,10 +3765,10 @@
         <v>10</v>
       </c>
       <c r="C294" s="1">
-        <v>0.26266409817351588</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2626640981735159</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
       <c r="A295" t="s">
         <v>42</v>
       </c>
@@ -3822,10 +3776,10 @@
         <v>35</v>
       </c>
       <c r="C295" s="1">
-        <v>2.5331623931623939E-2</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.02533162393162394</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
       <c r="A296" t="s">
         <v>42</v>
       </c>
@@ -3833,10 +3787,10 @@
         <v>11</v>
       </c>
       <c r="C296" s="1">
-        <v>4.0597610969748392E-2</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.04059761096974839</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
       <c r="A297" t="s">
         <v>42</v>
       </c>
@@ -3844,10 +3798,10 @@
         <v>12</v>
       </c>
       <c r="C297" s="1">
-        <v>5.3802910052910061E-2</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.05380291005291006</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
       <c r="A298" t="s">
         <v>42</v>
       </c>
@@ -3855,10 +3809,10 @@
         <v>13</v>
       </c>
       <c r="C298" s="1">
-        <v>4.0927454463135157E-2</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.04092745446313517</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
       <c r="A299" t="s">
         <v>42</v>
       </c>
@@ -3866,10 +3820,10 @@
         <v>36</v>
       </c>
       <c r="C299" s="1">
-        <v>8.2558139534883709E-2</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.08255813953488371</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
       <c r="A300" t="s">
         <v>42</v>
       </c>
@@ -3880,7 +3834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3">
       <c r="A301" t="s">
         <v>42</v>
       </c>
@@ -3891,7 +3845,7 @@
         <v>0.1168953858392999</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3">
       <c r="A302" t="s">
         <v>43</v>
       </c>
@@ -3899,10 +3853,10 @@
         <v>29</v>
       </c>
       <c r="C302" s="1">
-        <v>4.3201754385964908E-2</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.04320175438596492</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
       <c r="A303" t="s">
         <v>43</v>
       </c>
@@ -3910,10 +3864,10 @@
         <v>30</v>
       </c>
       <c r="C303" s="1">
-        <v>1.9680481592961329E-2</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.01968048159296133</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
       <c r="A304" t="s">
         <v>43</v>
       </c>
@@ -3924,7 +3878,7 @@
         <v>0.1149310551558753</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3">
       <c r="A305" t="s">
         <v>43</v>
       </c>
@@ -3932,10 +3886,10 @@
         <v>6</v>
       </c>
       <c r="C305" s="1">
-        <v>9.9222222222222212E-2</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.09922222222222224</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
       <c r="A306" t="s">
         <v>43</v>
       </c>
@@ -3943,10 +3897,10 @@
         <v>7</v>
       </c>
       <c r="C306" s="1">
-        <v>0.1972429906542057</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1972429906542056</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
       <c r="A307" t="s">
         <v>43</v>
       </c>
@@ -3954,10 +3908,10 @@
         <v>8</v>
       </c>
       <c r="C307" s="1">
-        <v>0.17066493206128941</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1706649320612894</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
       <c r="A308" t="s">
         <v>43</v>
       </c>
@@ -3965,10 +3919,10 @@
         <v>9</v>
       </c>
       <c r="C308" s="1">
-        <v>0.15925954120990671</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1592595412099067</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
       <c r="A309" t="s">
         <v>43</v>
       </c>
@@ -3976,10 +3930,10 @@
         <v>10</v>
       </c>
       <c r="C309" s="1">
-        <v>0.28920739796581951</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2892073979658195</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
       <c r="A310" t="s">
         <v>43</v>
       </c>
@@ -3987,10 +3941,10 @@
         <v>35</v>
       </c>
       <c r="C310" s="1">
-        <v>2.3659060846560848E-2</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.02365906084656084</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
       <c r="A311" t="s">
         <v>43</v>
       </c>
@@ -3998,10 +3952,10 @@
         <v>11</v>
       </c>
       <c r="C311" s="1">
-        <v>3.7814153439153453E-2</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.03781415343915345</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
       <c r="A312" t="s">
         <v>43</v>
       </c>
@@ -4009,10 +3963,10 @@
         <v>12</v>
       </c>
       <c r="C312" s="1">
-        <v>4.0727393015077148E-2</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.04072739301507714</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
       <c r="A313" t="s">
         <v>43</v>
       </c>
@@ -4020,10 +3974,10 @@
         <v>13</v>
       </c>
       <c r="C313" s="1">
-        <v>0.36475220009263548</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3647522000926355</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
       <c r="A314" t="s">
         <v>43</v>
       </c>
@@ -4031,10 +3985,10 @@
         <v>36</v>
       </c>
       <c r="C314" s="1">
-        <v>5.6733189500179811E-2</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.0567331895001798</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
       <c r="A315" t="s">
         <v>43</v>
       </c>
@@ -4042,10 +3996,10 @@
         <v>14</v>
       </c>
       <c r="C315" s="1">
-        <v>3.1889738687061818E-2</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.03188973868706182</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
       <c r="A316" t="s">
         <v>43</v>
       </c>
@@ -4053,10 +4007,10 @@
         <v>15</v>
       </c>
       <c r="C316" s="1">
-        <v>0.26420482520925648</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2642048252092564</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
       <c r="A317" t="s">
         <v>44</v>
       </c>
@@ -4067,7 +4021,7 @@
         <v>0.123430501783952</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3">
       <c r="A318" t="s">
         <v>44</v>
       </c>
@@ -4075,10 +4029,10 @@
         <v>30</v>
       </c>
       <c r="C318" s="1">
-        <v>4.9820601851851838E-2</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.04982060185185184</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
       <c r="A319" t="s">
         <v>44</v>
       </c>
@@ -4089,7 +4043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3">
       <c r="A320" t="s">
         <v>44</v>
       </c>
@@ -4100,7 +4054,7 @@
         <v>0.1081282051282051</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3">
       <c r="A321" t="s">
         <v>44</v>
       </c>
@@ -4111,7 +4065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3">
       <c r="A322" t="s">
         <v>44</v>
       </c>
@@ -4119,10 +4073,10 @@
         <v>8</v>
       </c>
       <c r="C322" s="1">
-        <v>0.17363511659807959</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1736351165980796</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
       <c r="A323" t="s">
         <v>44</v>
       </c>
@@ -4133,7 +4087,7 @@
         <v>0.1491888466413181</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3">
       <c r="A324" t="s">
         <v>44</v>
       </c>
@@ -4141,10 +4095,10 @@
         <v>10</v>
       </c>
       <c r="C324" s="1">
-        <v>0.24441554467564269</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2444155446756426</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
       <c r="A325" t="s">
         <v>44</v>
       </c>
@@ -4152,10 +4106,10 @@
         <v>35</v>
       </c>
       <c r="C325" s="1">
-        <v>1.8124885719509969E-2</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.01812488571950997</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
       <c r="A326" t="s">
         <v>44</v>
       </c>
@@ -4163,10 +4117,10 @@
         <v>11</v>
       </c>
       <c r="C326" s="1">
-        <v>4.1189369021965141E-2</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.04118936902196515</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
       <c r="A327" t="s">
         <v>44</v>
       </c>
@@ -4174,10 +4128,10 @@
         <v>12</v>
       </c>
       <c r="C327" s="1">
-        <v>0.44030934343434353</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4403093434343435</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
       <c r="A328" t="s">
         <v>44</v>
       </c>
@@ -4188,7 +4142,7 @@
         <v>0.1924140211640212</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3">
       <c r="A329" t="s">
         <v>44</v>
       </c>
@@ -4196,10 +4150,10 @@
         <v>36</v>
       </c>
       <c r="C329" s="1">
-        <v>8.4524900702719258E-2</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.08452490070271924</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
       <c r="A330" t="s">
         <v>44</v>
       </c>
@@ -4210,7 +4164,7 @@
         <v>0.163708132732826</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3">
       <c r="A331" t="s">
         <v>44</v>
       </c>
@@ -4218,10 +4172,10 @@
         <v>15</v>
       </c>
       <c r="C331" s="1">
-        <v>3.8516982593678743E-2</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.03851698259367873</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
       <c r="A332" t="s">
         <v>45</v>
       </c>
@@ -4229,10 +4183,10 @@
         <v>29</v>
       </c>
       <c r="C332" s="1">
-        <v>8.9052085904714889E-2</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.08905208590471489</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
       <c r="A333" t="s">
         <v>45</v>
       </c>
@@ -4240,10 +4194,10 @@
         <v>30</v>
       </c>
       <c r="C333" s="1">
-        <v>7.5840132761720358E-2</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.0659848393695103</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
       <c r="A334" t="s">
         <v>45</v>
       </c>
@@ -4251,10 +4205,10 @@
         <v>4</v>
       </c>
       <c r="C334" s="1">
-        <v>2.2772657450076811E-2</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.0227726574500768</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
       <c r="A335" t="s">
         <v>45</v>
       </c>
@@ -4262,10 +4216,10 @@
         <v>6</v>
       </c>
       <c r="C335" s="1">
-        <v>5.0516185476815398E-2</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.0505161854768154</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
       <c r="A336" t="s">
         <v>45</v>
       </c>
@@ -4273,10 +4227,10 @@
         <v>7</v>
       </c>
       <c r="C336" s="1">
-        <v>0.27825146198830403</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2782514619883041</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
       <c r="A337" t="s">
         <v>45</v>
       </c>
@@ -4284,10 +4238,10 @@
         <v>8</v>
       </c>
       <c r="C337" s="1">
-        <v>0.22495232987724939</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2249523298772494</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
       <c r="A338" t="s">
         <v>45</v>
       </c>
@@ -4295,10 +4249,10 @@
         <v>9</v>
       </c>
       <c r="C338" s="1">
-        <v>0.18693773961876989</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1869377396187699</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
       <c r="A339" t="s">
         <v>45</v>
       </c>
@@ -4309,7 +4263,7 @@
         <v>0.2133362962962963</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3">
       <c r="A340" t="s">
         <v>45</v>
       </c>
@@ -4317,10 +4271,10 @@
         <v>35</v>
       </c>
       <c r="C340" s="1">
-        <v>9.4503988645818035E-2</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.09450398864581806</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
       <c r="A341" t="s">
         <v>45</v>
       </c>
@@ -4328,10 +4282,10 @@
         <v>11</v>
       </c>
       <c r="C341" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
       <c r="A342" t="s">
         <v>45</v>
       </c>
@@ -4339,10 +4293,10 @@
         <v>12</v>
       </c>
       <c r="C342" s="1">
-        <v>2.623869098105739E-2</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.0262386909810574</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
       <c r="A343" t="s">
         <v>45</v>
       </c>
@@ -4350,10 +4304,10 @@
         <v>13</v>
       </c>
       <c r="C343" s="1">
-        <v>7.3034060846560861E-2</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.07303406084656086</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
       <c r="A344" t="s">
         <v>45</v>
       </c>
@@ -4361,10 +4315,10 @@
         <v>36</v>
       </c>
       <c r="C344" s="1">
-        <v>5.7589600742804052E-2</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.05758960074280407</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
       <c r="A345" t="s">
         <v>45</v>
       </c>
@@ -4372,10 +4326,10 @@
         <v>14</v>
       </c>
       <c r="C345" s="1">
-        <v>4.6580427376511108E-2</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.04658042737651111</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
       <c r="A346" t="s">
         <v>45</v>
       </c>
@@ -4386,29 +4340,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3">
       <c r="A347" t="s">
         <v>46</v>
       </c>
       <c r="B347" t="s">
         <v>29</v>
       </c>
-      <c r="C347" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C347" s="1">
+        <v>0.04229003651538862</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
       <c r="A348" t="s">
         <v>46</v>
       </c>
       <c r="B348" t="s">
         <v>30</v>
       </c>
-      <c r="C348" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C348" s="1">
+        <v>0.007014467338886455</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
       <c r="A349" t="s">
         <v>46</v>
       </c>
@@ -4416,10 +4370,10 @@
         <v>4</v>
       </c>
       <c r="C349" s="1">
-        <v>9.6577609500891087E-2</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1088297148512402</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
       <c r="A350" t="s">
         <v>46</v>
       </c>
@@ -4430,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3">
       <c r="A351" t="s">
         <v>46</v>
       </c>
@@ -4438,10 +4392,10 @@
         <v>7</v>
       </c>
       <c r="C351" s="1">
-        <v>0.23402467870612559</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2435233333333333</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
       <c r="A352" t="s">
         <v>46</v>
       </c>
@@ -4449,10 +4403,10 @@
         <v>8</v>
       </c>
       <c r="C352" s="1">
-        <v>0.14059722613712841</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1408078491335372</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
       <c r="A353" t="s">
         <v>46</v>
       </c>
@@ -4460,10 +4414,10 @@
         <v>9</v>
       </c>
       <c r="C353" s="1">
-        <v>0.13053692791263541</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1067774833373484</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
       <c r="A354" t="s">
         <v>46</v>
       </c>
@@ -4474,7 +4428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3">
       <c r="A355" t="s">
         <v>46</v>
       </c>
@@ -4482,10 +4436,10 @@
         <v>35</v>
       </c>
       <c r="C355" s="1">
-        <v>3.651810469196197E-2</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.03552665732232778</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
       <c r="A356" t="s">
         <v>46</v>
       </c>
@@ -4493,10 +4447,10 @@
         <v>11</v>
       </c>
       <c r="C356" s="1">
-        <v>0.99870052415424959</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4058300264550266</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
       <c r="A357" t="s">
         <v>46</v>
       </c>
@@ -4504,10 +4458,10 @@
         <v>12</v>
       </c>
       <c r="C357" s="1">
-        <v>7.909831892434431E-2</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1283052248677249</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
       <c r="A358" t="s">
         <v>46</v>
       </c>
@@ -4515,10 +4469,10 @@
         <v>13</v>
       </c>
       <c r="C358" s="1">
-        <v>3.3626361904023037E-2</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.06793154761904764</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
       <c r="A359" t="s">
         <v>46</v>
       </c>
@@ -4526,10 +4480,10 @@
         <v>36</v>
       </c>
       <c r="C359" s="1">
-        <v>0.12827017315578049</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.05982879643896592</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
       <c r="A360" t="s">
         <v>46</v>
       </c>
@@ -4537,266 +4491,186 @@
         <v>14</v>
       </c>
       <c r="C360" s="1">
-        <v>4.9967737188267657E-2</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.07258064516129029</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
       <c r="A361" t="s">
         <v>46</v>
       </c>
       <c r="B361" t="s">
         <v>15</v>
       </c>
-      <c r="C361" s="1" t="s">
+      <c r="C361" s="1">
+        <v>0.1387964302942595</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" t="s">
+        <v>47</v>
+      </c>
+      <c r="B362" t="s">
+        <v>29</v>
+      </c>
+      <c r="C362" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" t="s">
+        <v>47</v>
+      </c>
+      <c r="B363" t="s">
+        <v>30</v>
+      </c>
+      <c r="C363" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" t="s">
+        <v>47</v>
+      </c>
+      <c r="B364" t="s">
+        <v>4</v>
+      </c>
+      <c r="C364" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" t="s">
+        <v>47</v>
+      </c>
+      <c r="B365" t="s">
+        <v>6</v>
+      </c>
+      <c r="C365" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" t="s">
+        <v>47</v>
+      </c>
+      <c r="B366" t="s">
+        <v>7</v>
+      </c>
+      <c r="C366" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" t="s">
+        <v>47</v>
+      </c>
+      <c r="B367" t="s">
+        <v>8</v>
+      </c>
+      <c r="C367" s="1">
+        <v>0.5149622690606298</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" t="s">
+        <v>47</v>
+      </c>
+      <c r="B368" t="s">
+        <v>9</v>
+      </c>
+      <c r="C368" s="1">
+        <v>0.2915463123435394</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" t="s">
+        <v>47</v>
+      </c>
+      <c r="B369" t="s">
+        <v>10</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" t="s">
+        <v>47</v>
+      </c>
+      <c r="B370" t="s">
+        <v>35</v>
+      </c>
+      <c r="C370" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" t="s">
+        <v>47</v>
+      </c>
+      <c r="B371" t="s">
+        <v>11</v>
+      </c>
+      <c r="C371" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="s">
+        <v>47</v>
+      </c>
+      <c r="B372" t="s">
+        <v>12</v>
+      </c>
+      <c r="C372" s="1">
+        <v>0.1597653554175293</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="s">
+        <v>47</v>
+      </c>
+      <c r="B373" t="s">
+        <v>13</v>
+      </c>
+      <c r="C373" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="s">
+        <v>47</v>
+      </c>
+      <c r="B374" t="s">
+        <v>36</v>
+      </c>
+      <c r="C374" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="s">
+        <v>47</v>
+      </c>
+      <c r="B375" t="s">
+        <v>14</v>
+      </c>
+      <c r="C375" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="s">
+        <v>47</v>
+      </c>
+      <c r="B376" t="s">
+        <v>15</v>
+      </c>
+      <c r="C376" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010073878C0B4B32624092A7CFEA1D661FA6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125eb5e5d7730e891d696e5bae8a7e6a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75147ae7-e8a4-4142-a6c0-11af2a39406f" xmlns:ns3="7d6416de-6a19-4689-8321-92198e7bb1df" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f75228ffe6a76371275d10a4f80fac3" ns2:_="" ns3:_="">
-    <xsd:import namespace="75147ae7-e8a4-4142-a6c0-11af2a39406f"/>
-    <xsd:import namespace="7d6416de-6a19-4689-8321-92198e7bb1df"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="75147ae7-e8a4-4142-a6c0-11af2a39406f" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7d6416de-6a19-4689-8321-92198e7bb1df" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="15" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="16" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5139C87-4E2E-4BFF-8D4D-0C19D7F95C59}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80E80934-6EFB-4CE5-A196-7F53EC5ED61A}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71BFC26D-F080-4A34-B894-0A751800F51C}"/>
 </file>